--- a/docs/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/docs/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3792" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="530">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-18T23:49:30+02:00</t>
+    <t>2025-05-24T18:31:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -545,7 +545,7 @@
     <t>sae</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-sae-category-extension}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-sae-category}
 </t>
   </si>
   <si>
@@ -553,6 +553,22 @@
   </si>
   <si>
     <t>Categorie d'établissement de santé, suivant les valeurs de la SAE (Structure d'Activité d'Etablissement)</t>
+  </si>
+  <si>
+    <t>Organization.extension:raisonSociale</t>
+  </si>
+  <si>
+    <t>raisonSociale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-raison-sociale}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Raison Sociale Extension</t>
+  </si>
+  <si>
+    <t>Raison Sociale l'organisation</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -1992,7 +2008,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN104"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3875,43 +3891,41 @@
         <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="O17" t="s" s="2">
-        <v>177</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3959,7 +3973,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3977,7 +3991,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3988,14 +4002,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4008,23 +4022,25 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4061,19 +4077,19 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4082,30 +4098,30 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4116,7 +4132,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -4125,19 +4141,21 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4173,62 +4191,62 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4240,7 +4258,7 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>198</v>
@@ -4248,9 +4266,7 @@
       <c r="M20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4287,37 +4303,37 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4335,26 +4351,26 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>203</v>
@@ -4363,11 +4379,9 @@
         <v>204</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4391,47 +4405,49 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4442,10 +4458,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4462,25 +4478,25 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4505,11 +4521,11 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4527,7 +4543,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4542,10 +4558,10 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4556,10 +4572,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4582,19 +4598,19 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4607,7 +4623,7 @@
         <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>78</v>
@@ -4619,13 +4635,11 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4643,7 +4657,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4658,13 +4672,13 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4672,10 +4686,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4698,18 +4712,20 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4721,7 +4737,7 @@
         <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>78</v>
@@ -4757,7 +4773,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4772,13 +4788,13 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4786,10 +4802,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4812,15 +4828,17 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4833,7 +4851,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -4869,7 +4887,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4884,13 +4902,13 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4898,10 +4916,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4924,17 +4942,15 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4983,7 +4999,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4998,13 +5014,13 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5012,14 +5028,12 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5028,7 +5042,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5040,18 +5054,18 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5099,41 +5113,43 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5142,7 +5158,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5151,19 +5167,21 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5211,50 +5229,50 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5266,7 +5284,7 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>198</v>
@@ -5274,9 +5292,7 @@
       <c r="M29" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5313,37 +5329,37 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF29" t="s" s="2">
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5354,33 +5370,33 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>202</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>203</v>
@@ -5389,11 +5405,9 @@
         <v>204</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5402,7 +5416,7 @@
         <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>78</v>
@@ -5417,47 +5431,49 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5468,10 +5484,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5488,25 +5504,25 @@
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5516,7 +5532,7 @@
         <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>78</v>
@@ -5531,11 +5547,11 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5553,7 +5569,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5568,10 +5584,10 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5582,10 +5598,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5608,19 +5624,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5630,10 +5646,10 @@
         <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>78</v>
@@ -5645,13 +5661,11 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5669,7 +5683,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5684,13 +5698,13 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5698,10 +5712,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5724,18 +5738,20 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5744,10 +5760,10 @@
         <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>78</v>
@@ -5783,7 +5799,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5798,13 +5814,13 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5812,10 +5828,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5823,7 +5839,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -5838,15 +5854,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5859,7 +5877,7 @@
         <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>78</v>
@@ -5895,7 +5913,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5910,13 +5928,13 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5924,10 +5942,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5950,17 +5968,15 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6009,7 +6025,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6024,13 +6040,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6038,14 +6054,12 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6054,7 +6068,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6066,18 +6080,18 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6125,41 +6139,43 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6168,7 +6184,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6177,19 +6193,21 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6237,50 +6255,50 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6292,7 +6310,7 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>198</v>
@@ -6300,9 +6318,7 @@
       <c r="M38" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6339,37 +6355,37 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF38" t="s" s="2">
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6380,33 +6396,33 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>202</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>203</v>
@@ -6415,11 +6431,9 @@
         <v>204</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6443,47 +6457,49 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6494,10 +6510,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6505,7 +6521,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6514,25 +6530,25 @@
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6542,7 +6558,7 @@
         <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>78</v>
@@ -6557,11 +6573,11 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6579,7 +6595,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6594,10 +6610,10 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6608,10 +6624,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6634,19 +6650,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6656,10 +6672,10 @@
         <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -6671,13 +6687,11 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6695,7 +6709,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6710,13 +6724,13 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6724,10 +6738,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6735,7 +6749,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -6750,18 +6764,20 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6770,10 +6786,10 @@
         <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -6809,7 +6825,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6824,13 +6840,13 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6838,10 +6854,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6864,15 +6880,17 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6885,7 +6903,7 @@
         <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>78</v>
@@ -6921,7 +6939,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6936,13 +6954,13 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6950,10 +6968,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6976,17 +6994,15 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7035,7 +7051,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7050,13 +7066,13 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7064,14 +7080,12 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7080,7 +7094,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7092,18 +7106,18 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7151,41 +7165,43 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7194,7 +7210,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7203,19 +7219,21 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7263,50 +7281,50 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7318,7 +7336,7 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>198</v>
@@ -7326,9 +7344,7 @@
       <c r="M47" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7365,37 +7381,37 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AD47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF47" t="s" s="2">
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7406,33 +7422,33 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>202</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>203</v>
@@ -7441,11 +7457,9 @@
         <v>204</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7469,47 +7483,49 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7520,10 +7536,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7531,7 +7547,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>88</v>
@@ -7540,25 +7556,25 @@
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7568,7 +7584,7 @@
         <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>78</v>
@@ -7583,11 +7599,11 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7605,7 +7621,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7620,10 +7636,10 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7634,10 +7650,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7660,19 +7676,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7682,10 +7698,10 @@
         <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>78</v>
@@ -7697,13 +7713,11 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7721,7 +7735,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7736,13 +7750,13 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7750,10 +7764,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7761,7 +7775,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
@@ -7776,18 +7790,20 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7796,10 +7812,10 @@
         <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>78</v>
@@ -7835,7 +7851,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7850,13 +7866,13 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7864,10 +7880,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7890,15 +7906,17 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7911,7 +7929,7 @@
         <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>78</v>
@@ -7947,7 +7965,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7962,13 +7980,13 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7976,10 +7994,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8002,17 +8020,15 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8061,7 +8077,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8076,13 +8092,13 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8090,14 +8106,12 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8106,7 +8120,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8118,18 +8132,18 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8177,41 +8191,43 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8220,7 +8236,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8229,19 +8245,21 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8289,50 +8307,50 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8344,7 +8362,7 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>198</v>
@@ -8352,9 +8370,7 @@
       <c r="M56" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8391,37 +8407,37 @@
         <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF56" t="s" s="2">
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8432,33 +8448,33 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>202</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>203</v>
@@ -8467,11 +8483,9 @@
         <v>204</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8495,47 +8509,49 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8546,10 +8562,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8566,25 +8582,25 @@
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8609,11 +8625,11 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8631,7 +8647,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8646,10 +8662,10 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8660,10 +8676,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8683,19 +8699,23 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8719,13 +8739,11 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8743,7 +8761,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8755,13 +8773,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8772,21 +8790,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8798,7 +8816,7 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>198</v>
@@ -8806,9 +8824,7 @@
       <c r="M60" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8845,37 +8861,37 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF60" t="s" s="2">
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8886,14 +8902,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8909,23 +8925,21 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8961,19 +8975,19 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8985,13 +8999,13 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>318</v>
+        <v>201</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9002,10 +9016,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9016,7 +9030,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9025,19 +9039,23 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>192</v>
+        <v>316</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>193</v>
+        <v>317</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9085,25 +9103,25 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>196</v>
+        <v>323</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9114,21 +9132,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9140,7 +9158,7 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>198</v>
@@ -9148,9 +9166,7 @@
       <c r="M63" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9187,37 +9203,37 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF63" t="s" s="2">
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9228,21 +9244,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9251,23 +9267,21 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>325</v>
+        <v>203</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>326</v>
+        <v>204</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9276,7 +9290,7 @@
         <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>78</v>
@@ -9303,37 +9317,37 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>332</v>
+        <v>201</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9344,10 +9358,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9370,18 +9384,20 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9390,7 +9406,7 @@
         <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>78</v>
@@ -9429,7 +9445,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9444,10 +9460,10 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9458,10 +9474,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9484,18 +9500,18 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9543,7 +9559,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9558,10 +9574,10 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9572,10 +9588,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9598,17 +9614,17 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9657,7 +9673,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9672,10 +9688,10 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9686,10 +9702,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9712,19 +9728,17 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9773,7 +9787,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9788,10 +9802,10 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9802,10 +9816,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9828,19 +9842,19 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>192</v>
+        <v>364</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9889,7 +9903,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9904,10 +9918,10 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9918,10 +9932,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>221</v>
+        <v>373</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9929,7 +9943,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -9944,19 +9958,19 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>222</v>
+        <v>374</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>223</v>
+        <v>375</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>224</v>
+        <v>376</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>225</v>
+        <v>377</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -9966,10 +9980,10 @@
         <v>78</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>78</v>
@@ -10005,7 +10019,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>227</v>
+        <v>378</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10020,13 +10034,13 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>228</v>
+        <v>379</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>229</v>
+        <v>380</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10034,10 +10048,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10045,7 +10059,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>88</v>
@@ -10060,18 +10074,20 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10080,10 +10096,10 @@
         <v>78</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>78</v>
@@ -10119,7 +10135,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10134,13 +10150,13 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10148,10 +10164,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10174,15 +10190,17 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10195,7 +10213,7 @@
         <v>78</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>78</v>
@@ -10231,7 +10249,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10246,13 +10264,13 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10260,10 +10278,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10286,17 +10304,15 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10345,7 +10361,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10360,13 +10376,13 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10374,14 +10390,12 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10390,7 +10404,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10402,18 +10416,18 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10461,41 +10475,43 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10504,7 +10520,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10513,19 +10529,21 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>193</v>
+        <v>388</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10573,50 +10591,50 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10628,7 +10646,7 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>198</v>
@@ -10636,9 +10654,7 @@
       <c r="M76" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10675,37 +10691,37 @@
         <v>78</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF76" t="s" s="2">
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -10716,33 +10732,33 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>202</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>203</v>
@@ -10751,11 +10767,9 @@
         <v>204</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10779,47 +10793,49 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y77" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z77" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -10830,10 +10846,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10841,7 +10857,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>
@@ -10850,25 +10866,25 @@
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -10878,7 +10894,7 @@
         <v>78</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>78</v>
@@ -10893,11 +10909,11 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10915,7 +10931,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10930,10 +10946,10 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -10944,10 +10960,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10970,19 +10986,19 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -10992,10 +11008,10 @@
         <v>78</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>78</v>
@@ -11007,13 +11023,11 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11031,7 +11045,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11046,13 +11060,13 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11060,10 +11074,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11071,7 +11085,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
@@ -11086,18 +11100,20 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11106,10 +11122,10 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>78</v>
@@ -11145,7 +11161,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11160,13 +11176,13 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11174,10 +11190,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11200,15 +11216,17 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11221,7 +11239,7 @@
         <v>78</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>78</v>
@@ -11257,7 +11275,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11272,13 +11290,13 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11286,10 +11304,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11312,17 +11330,15 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11371,7 +11387,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11386,13 +11402,13 @@
         <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11400,10 +11416,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11420,32 +11436,28 @@
         <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>359</v>
+        <v>254</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>396</v>
+        <v>256</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q83" t="s" s="2">
-        <v>399</v>
-      </c>
+      <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11489,7 +11501,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>394</v>
+        <v>258</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11504,24 +11516,24 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>400</v>
+        <v>259</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>401</v>
+        <v>260</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>402</v>
+        <v>261</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11532,36 +11544,38 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="R84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11581,11 +11595,13 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11603,13 +11619,13 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
@@ -11618,24 +11634,24 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>196</v>
+        <v>407</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11646,10 +11662,10 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>78</v>
@@ -11658,19 +11674,19 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -11695,13 +11711,11 @@
         <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>78</v>
@@ -11719,39 +11733,39 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>420</v>
+        <v>201</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11762,31 +11776,31 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O86" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -11835,28 +11849,28 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -11890,19 +11904,19 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -11960,19 +11974,19 @@
         <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>433</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -11980,10 +11994,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12006,19 +12020,19 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12067,7 +12081,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12076,19 +12090,19 @@
         <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12096,10 +12110,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12110,7 +12124,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12119,20 +12133,22 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O89" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12181,28 +12197,28 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI89" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ89" t="s" s="2">
-        <v>100</v>
+        <v>449</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>196</v>
+        <v>452</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12210,10 +12226,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12233,19 +12249,21 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>192</v>
+        <v>454</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>193</v>
+        <v>455</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>194</v>
+        <v>456</v>
       </c>
       <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12293,7 +12311,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>195</v>
+        <v>453</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12305,16 +12323,16 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>196</v>
+        <v>458</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12322,21 +12340,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12348,7 +12366,7 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>198</v>
@@ -12356,9 +12374,7 @@
       <c r="M91" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12395,37 +12411,37 @@
         <v>78</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF91" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF91" t="s" s="2">
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -12436,21 +12452,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -12459,19 +12475,19 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>457</v>
+        <v>203</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>458</v>
+        <v>204</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>459</v>
+        <v>181</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12509,37 +12525,37 @@
         <v>78</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>460</v>
+        <v>206</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -12550,10 +12566,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12576,16 +12592,16 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12611,38 +12627,40 @@
         <v>78</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y93" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI93" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>100</v>
@@ -12662,10 +12680,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12688,16 +12706,16 @@
         <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12723,13 +12741,11 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>78</v>
@@ -12765,7 +12781,7 @@
         <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>473</v>
+        <v>131</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>78</v>
@@ -12776,10 +12792,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12802,16 +12818,16 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12861,7 +12877,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -12879,7 +12895,7 @@
         <v>78</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>131</v>
+        <v>478</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>78</v>
@@ -12904,7 +12920,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -12913,23 +12929,21 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="N96" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>484</v>
-      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -12977,13 +12991,13 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
@@ -12995,7 +13009,7 @@
         <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>485</v>
+        <v>131</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
@@ -13006,10 +13020,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13020,7 +13034,7 @@
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
@@ -13032,16 +13046,20 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>192</v>
+        <v>485</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>193</v>
+        <v>486</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13089,25 +13107,25 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>195</v>
+        <v>484</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>196</v>
+        <v>490</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>78</v>
@@ -13118,21 +13136,21 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13144,7 +13162,7 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L98" t="s" s="2">
         <v>198</v>
@@ -13152,9 +13170,7 @@
       <c r="M98" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N98" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13203,25 +13219,25 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>78</v>
@@ -13232,14 +13248,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>489</v>
+        <v>178</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13252,26 +13268,24 @@
         <v>78</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>490</v>
+        <v>203</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>491</v>
+        <v>204</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13319,7 +13333,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>492</v>
+        <v>206</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13337,7 +13351,7 @@
         <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>78</v>
@@ -13355,36 +13369,38 @@
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>78</v>
+        <v>494</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O100" t="s" s="2">
-        <v>496</v>
+        <v>182</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13409,49 +13425,49 @@
         <v>78</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF100" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>499</v>
+        <v>131</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>78</v>
@@ -13462,10 +13478,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13488,17 +13504,17 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>501</v>
+        <v>217</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>78</v>
@@ -13523,13 +13539,13 @@
         <v>78</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>78</v>
+        <v>503</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>78</v>
@@ -13547,7 +13563,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -13562,10 +13578,10 @@
         <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>505</v>
+        <v>78</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>78</v>
@@ -13576,10 +13592,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13590,7 +13606,7 @@
         <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -13602,17 +13618,17 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -13661,13 +13677,13 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>78</v>
@@ -13676,10 +13692,10 @@
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>78</v>
@@ -13690,10 +13706,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13704,7 +13720,7 @@
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
@@ -13716,17 +13732,17 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>438</v>
+        <v>513</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -13775,13 +13791,13 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
@@ -13790,10 +13806,10 @@
         <v>100</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>78</v>
@@ -13804,10 +13820,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13818,7 +13834,7 @@
         <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>78</v>
@@ -13830,17 +13846,17 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -13889,13 +13905,13 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>78</v>
@@ -13904,20 +13920,134 @@
         <v>100</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>78</v>
+        <v>523</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>196</v>
+        <v>524</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN104" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN104">
+  <autoFilter ref="A1:AN105">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13927,7 +14057,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI103">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/docs/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-24T18:31:28+02:00</t>
+    <t>2025-06-03T19:04:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
